--- a/public/template/device_sale_template.xlsx
+++ b/public/template/device_sale_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hlsamhu\IdeaProjects\cpappal\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F5AB8-6E54-4ACC-88D4-ED2367BD7B72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="992" windowWidth="19508" windowHeight="10256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="990" windowWidth="19510" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Delivery Date</t>
   </si>
@@ -43,13 +42,22 @@
   </si>
   <si>
     <t>Expiry Date of Maintaince</t>
+  </si>
+  <si>
+    <t>Report Criteria:</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>To Date:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,8 +85,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,23 +252,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,23 +287,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,48 +462,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.9140625" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1"/>
+    <row r="3" spans="1:8" s="3" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -521,12 +528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -534,12 +541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.3"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
